--- a/experiment schedule.xlsx
+++ b/experiment schedule.xlsx
@@ -14,129 +14,141 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>폴드5 -&gt; 10 (정확학습)</t>
   </si>
   <si>
-    <t>1024로 늘린 것이 의미가 있는듯</t>
-  </si>
-  <si>
     <t>3+4</t>
   </si>
   <si>
+    <t>1+2+3+4+6</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Experiment name</t>
+  </si>
+  <si>
+    <t>원사이즈 데이터</t>
+  </si>
+  <si>
+    <t>Public 리더보드</t>
+  </si>
+  <si>
+    <t>Train info</t>
+  </si>
+  <si>
+    <t>Resnet50</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Public LB</t>
+  </si>
+  <si>
+    <t>Fold 1</t>
+  </si>
+  <si>
+    <t>Fold 3</t>
+  </si>
+  <si>
+    <t>Fold 0</t>
+  </si>
+  <si>
+    <t>Fold 2</t>
+  </si>
+  <si>
+    <t>Fold 4</t>
+  </si>
+  <si>
+    <t>SeUnet512</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨범: elastic/grid 제거, scale 1.1추가, rotate 줄임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈도레이블(1번 pred)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet512</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet512F10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet512PL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet512AL_KJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet512AL_JW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet512AL_AHN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강지현 수정버전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>안원혁 수정버전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출예정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet1024F10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>albunet1024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>학습중</t>
-  </si>
-  <si>
-    <t>1+2+3+4+6</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Experiment name</t>
-  </si>
-  <si>
-    <t>원사이즈 데이터</t>
-  </si>
-  <si>
-    <t>SeUnet1024</t>
-  </si>
-  <si>
-    <t>SeUnet512ex</t>
-  </si>
-  <si>
-    <t>Public 리더보드</t>
-  </si>
-  <si>
-    <t>albunet1024</t>
-  </si>
-  <si>
-    <t>albunet512</t>
-  </si>
-  <si>
-    <t>Train info</t>
-  </si>
-  <si>
-    <t>Submit info</t>
-  </si>
-  <si>
-    <t>Resnet50</t>
-  </si>
-  <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
-    <t>Public LB</t>
-  </si>
-  <si>
-    <t>Ave. Fold</t>
-  </si>
-  <si>
-    <t>albunet1024fold10</t>
-  </si>
-  <si>
-    <t>albunet1024fold10ex</t>
-  </si>
-  <si>
-    <t>Fold 1</t>
-  </si>
-  <si>
-    <t>Fold 3</t>
-  </si>
-  <si>
-    <t>Fold 0</t>
-  </si>
-  <si>
-    <t>Fold 2</t>
-  </si>
-  <si>
-    <t>Fold 4</t>
-  </si>
-  <si>
-    <t>1+2+6</t>
-  </si>
-  <si>
-    <t>슈도레이블(ensemble01 pred)</t>
-  </si>
-  <si>
-    <t>SeUnet512</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>albunet1024fold10album2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>앨범: elastic/grid 제거, scale 1.1추가, rotate 줄임</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>albunet1024fold10th02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">전처리 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>threshold 바꾼 이미지로 학습</t>
-    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -357,13 +369,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,22 +392,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -673,388 +716,387 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B6:L30"/>
+  <dimension ref="B5:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B6" sqref="B6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="3.8984375" customWidth="1"/>
     <col min="3" max="3" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.95931</v>
+      </c>
+      <c r="E7" s="21">
+        <f>AVERAGE(G7:K7)</f>
+        <v>0.99006000000000005</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="G7" s="3">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="8">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.93637000000000004</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="8">
         <v>8</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.93837000000000004</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.94108000000000003</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="C14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="8">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="8">
+        <v>10</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>28</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="9">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.93586000000000003</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="9">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="9">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="9">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="9">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="8">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="9">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="8">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="9">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="8">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
+      <c r="C19" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="11" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="8">
         <v>5</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="5" t="s">
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>6</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.93974999999999997</v>
-      </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="9">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="9">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="9">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="11">
-        <v>6</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
